--- a/myntra_output_two.xlsx
+++ b/myntra_output_two.xlsx
@@ -774,17 +774,23 @@
           <t>https://www.myntra.com/sweatshirts/3pin/3pin-boys-graphic-printed-pure-cotton-sweatshirt/30701547/buy</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>GLENMARGON OVERSEAS</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>404</t>
-        </is>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Thu, Oct 02</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>200</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t xml:space="preserve">No seller or delivery data and no explicit redirect/error; Pincode input not found or not interactable; No size clicked (may be single size, all sizes unavailable, or selectors need tuning); Seller not found; Delivery info not found; </t>
+          <t xml:space="preserve">No size clicked (may be single size, all sizes unavailable, or selectors need tuning); </t>
         </is>
       </c>
     </row>
@@ -797,86 +803,110 @@
           <t>https://www.myntra.com/tshirts/3pin/3pin-boys-typography-printed-round-neck-cotton-t-shirt/30815898/buy</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>GLENMARGON OVERSEAS</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>404</t>
-        </is>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Thu, Oct 02</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>200</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t xml:space="preserve">No seller or delivery data and no explicit redirect/error; Pincode input not found or not interactable; No size clicked (may be single size, all sizes unavailable, or selectors need tuning); Seller not found; Delivery info not found; </t>
+          <t xml:space="preserve">No size clicked (may be single size, all sizes unavailable, or selectors need tuning); </t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/night-suits/3pin/3pin-boys-pure-cotton-camouflage-printed-night-suit/31520701/buy</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
+          <t>https://www.myntra.com/tshirts/3pin/3pin-boys-typography-printed-pure-cotton-round-neck-t-shirt/30826459/buy</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>GLENMARGON OVERSEAS</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>404</t>
-        </is>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Thu, Oct 02</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>200</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t xml:space="preserve">No seller or delivery data and no explicit redirect/error; Pincode input not found or not interactable; No size clicked (may be single size, all sizes unavailable, or selectors need tuning); Seller not found; Delivery info not found; </t>
+          <t xml:space="preserve">No size clicked (may be single size, all sizes unavailable, or selectors need tuning); </t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/tshirts/3pin/3pin-boys-typography-printed-pure-cotton-round-neck-t-shirt/30826459/buy</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
+          <t>https://www.myntra.com/night-suits/3pin/3pin-boys-pure-cotton-camouflage-printed-night-suit/31520701/buy</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>GLENMARGON OVERSEAS</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>404</t>
-        </is>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Thu, Oct 02</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>200</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t xml:space="preserve">No seller or delivery data and no explicit redirect/error; Pincode input not found or not interactable; No size clicked (may be single size, all sizes unavailable, or selectors need tuning); Seller not found; Delivery info not found; </t>
+          <t xml:space="preserve">No size clicked (may be single size, all sizes unavailable, or selectors need tuning); </t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/tshirts/3pin/3pin-boys-colourblocked-hooded-long-sleeve-cotton-regular-t-shirt/25260350/buy</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
+          <t>https://www.myntra.com/tshirts/3pin/3pin-boys-cotton-striped-t-shirt/21234538/buy</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>GLENMARGON OVERSEAS</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>404</t>
-        </is>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Thu, Oct 02</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>200</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t xml:space="preserve">No seller or delivery data and no explicit redirect/error; Pincode input not found or not interactable; No size clicked (may be single size, all sizes unavailable, or selectors need tuning); Seller not found; Delivery info not found; </t>
+          <t xml:space="preserve">No size clicked (may be single size, all sizes unavailable, or selectors need tuning); </t>
         </is>
       </c>
     </row>
@@ -889,63 +919,81 @@
           <t>https://www.myntra.com/tshirts/3pin/3pin-girls-pink-floral-printed--pure-cotton-t-shirt/14717492/buy</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>GLENMARGON OVERSEAS</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>404</t>
-        </is>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Thu, Oct 02</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>200</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t xml:space="preserve">No seller or delivery data and no explicit redirect/error; Pincode input not found or not interactable; No size clicked (may be single size, all sizes unavailable, or selectors need tuning); Seller not found; Delivery info not found; </t>
+          <t xml:space="preserve">No size clicked (may be single size, all sizes unavailable, or selectors need tuning); </t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/tshirts/3pin/3pin-boys-cotton-striped-t-shirt/21234538/buy</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
+          <t>https://www.myntra.com/tshirts/3pin/3pin-boys-typography-t-shirt/30916752/buy</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>GLENMARGON OVERSEAS</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>404</t>
-        </is>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Thu, Oct 02</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>200</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t xml:space="preserve">No seller or delivery data and no explicit redirect/error; Pincode input not found or not interactable; No size clicked (may be single size, all sizes unavailable, or selectors need tuning); Seller not found; Delivery info not found; </t>
+          <t xml:space="preserve">No size clicked (may be single size, all sizes unavailable, or selectors need tuning); </t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/tshirts/3pin/3pin-boys-typography-t-shirt/30916752/buy</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
+          <t>https://www.myntra.com/tshirts/3pin/3pin-boys-colourblocked-hooded-long-sleeve-cotton-regular-t-shirt/25260350/buy</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>GLENMARGON OVERSEAS</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>404</t>
-        </is>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Thu, Oct 02</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>200</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t xml:space="preserve">No seller or delivery data and no explicit redirect/error; Pincode input not found or not interactable; No size clicked (may be single size, all sizes unavailable, or selectors need tuning); Seller not found; Delivery info not found; </t>
+          <t xml:space="preserve">No size clicked (may be single size, all sizes unavailable, or selectors need tuning); </t>
         </is>
       </c>
     </row>
@@ -958,529 +1006,655 @@
           <t>https://www.myntra.com/tshirts/3pin/3pin-boys-typography-printed-round-neck-cotton-t-shirt/30826468/buy</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>GLENMARGON OVERSEAS</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>404</t>
-        </is>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Thu, Oct 02</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>200</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t xml:space="preserve">No seller or delivery data and no explicit redirect/error; Pincode input not found or not interactable; No size clicked (may be single size, all sizes unavailable, or selectors need tuning); Seller not found; Delivery info not found; </t>
+          <t xml:space="preserve">No size clicked (may be single size, all sizes unavailable, or selectors need tuning); </t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>https://www.myntra.com/jeggings/3pin/3pin-girls-regular-fit-cotton-jeggings/21056864/buy</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>GLENMARGON OVERSEAS</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>404</t>
-        </is>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Thu, Oct 02</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>200</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t xml:space="preserve">No seller or delivery data and no explicit redirect/error; Pincode input not found or not interactable; No size clicked (may be single size, all sizes unavailable, or selectors need tuning); Seller not found; Delivery info not found; </t>
+          <t xml:space="preserve">No size clicked (may be single size, all sizes unavailable, or selectors need tuning); </t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/shorts/3pin/3pin-men-grey-printed-regular-fit-regular-shorts/14254262/buy</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
+          <t>https://www.myntra.com/dresses/3pin/3pin-girls-self-design-round-neck-cap-sleeves-ruffles-cotton-casual-fit--flare-dress/24708196/buy</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>GLENMARGON OVERSEAS</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>404</t>
-        </is>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Thu, Oct 02</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>200</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve">No seller or delivery data and no explicit redirect/error; Pincode input not found or not interactable; No size clicked (may be single size, all sizes unavailable, or selectors need tuning); Seller not found; Delivery info not found; </t>
+          <t xml:space="preserve">No size clicked (may be single size, all sizes unavailable, or selectors need tuning); </t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/dresses/3pin/3pin-girls-self-design-round-neck-cap-sleeves-ruffles-cotton-casual-fit--flare-dress/24708196/buy</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
+          <t>https://www.myntra.com/shorts/3pin/3pin-men-grey-printed-regular-fit-regular-shorts/14254262/buy</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>GLENMARGON OVERSEAS</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>404</t>
-        </is>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Thu, Oct 02</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>200</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t xml:space="preserve">No seller or delivery data and no explicit redirect/error; Pincode input not found or not interactable; No size clicked (may be single size, all sizes unavailable, or selectors need tuning); Seller not found; Delivery info not found; </t>
+          <t xml:space="preserve">No size clicked (may be single size, all sizes unavailable, or selectors need tuning); </t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/tshirts/3pin/3pin-boys-graphic-printed-round-neck-cotton-t-shirt/30852513/buy</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
+          <t>https://www.myntra.com/tshirts/3pin/3pin-boys-short-sleeves-polo-collar-cotton-t-shirt/29037998/buy</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>GLENMARGON OVERSEAS</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>404</t>
-        </is>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Thu, Oct 02</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>200</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t xml:space="preserve">No seller or delivery data and no explicit redirect/error; Pincode input not found or not interactable; No size clicked (may be single size, all sizes unavailable, or selectors need tuning); Seller not found; Delivery info not found; </t>
+          <t xml:space="preserve">No size clicked (may be single size, all sizes unavailable, or selectors need tuning); </t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/tshirts/3pin/3pin-women-pink-printed-round-neck-t-shirt/14260666/buy</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
+          <t>https://www.myntra.com/shorts/3pin/3pin-men-charcoal-colourblocked-regular-fit-regular-shorts/14254258/buy</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>GLENMARGON OVERSEAS</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>404</t>
-        </is>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Thu, Oct 02</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>200</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t xml:space="preserve">No seller or delivery data and no explicit redirect/error; Pincode input not found or not interactable; No size clicked (may be single size, all sizes unavailable, or selectors need tuning); Seller not found; Delivery info not found; </t>
+          <t xml:space="preserve">No size clicked (may be single size, all sizes unavailable, or selectors need tuning); </t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/shorts/3pin/3pin-men-charcoal-colourblocked-regular-fit-regular-shorts/14254258/buy</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
+          <t>https://www.myntra.com/tshirts/3pin/3pin-boys-graphic-printed-round-neck-cotton-t-shirt/30852513/buy</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>GLENMARGON OVERSEAS</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>404</t>
-        </is>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Thu, Oct 02</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>200</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t xml:space="preserve">No seller or delivery data and no explicit redirect/error; Pincode input not found or not interactable; No size clicked (may be single size, all sizes unavailable, or selectors need tuning); Seller not found; Delivery info not found; </t>
+          <t xml:space="preserve">No size clicked (may be single size, all sizes unavailable, or selectors need tuning); </t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/tshirts/3pin/3pin-boys-short-sleeves-polo-collar-cotton-t-shirt/29037998/buy</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
+          <t>https://www.myntra.com/tshirts/3pin/3pin-women-pink-printed-round-neck-t-shirt/14260666/buy</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>GLENMARGON OVERSEAS</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>404</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">No seller or delivery data and no explicit redirect/error; Pincode input not found or not interactable; No size clicked (may be single size, all sizes unavailable, or selectors need tuning); Seller not found; Delivery info not found; </t>
-        </is>
-      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Thu, Oct 02</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>200</v>
+      </c>
+      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>https://www.myntra.com/sweatshirts/3pin/3pin-girls-graphic-printed-pure-cotton-sweatshirt/30701546/buy</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>GLENMARGON OVERSEAS</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>404</t>
-        </is>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Thu, Oct 02</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>200</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t xml:space="preserve">No seller or delivery data and no explicit redirect/error; Pincode input not found or not interactable; No size clicked (may be single size, all sizes unavailable, or selectors need tuning); Seller not found; Delivery info not found; </t>
+          <t xml:space="preserve">No size clicked (may be single size, all sizes unavailable, or selectors need tuning); </t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/tshirts/3pin/3pin-boys-colourblocked-round-neck-long-sleeve-cotton-regular-t-shirt/25260374/buy</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
+          <t>https://www.myntra.com/tshirts/3pin/3pin-boys-striped-round-neck-cotton-t-shirt/30826438/buy</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>GLENMARGON OVERSEAS</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>404</t>
-        </is>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Thu, Oct 02</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>200</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t xml:space="preserve">No seller or delivery data and no explicit redirect/error; Pincode input not found or not interactable; No size clicked (may be single size, all sizes unavailable, or selectors need tuning); Seller not found; Delivery info not found; </t>
+          <t xml:space="preserve">No size clicked (may be single size, all sizes unavailable, or selectors need tuning); </t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/tshirts/3pin/3pin-boys-striped-round-neck-cotton-t-shirt/30826438/buy</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
+          <t>https://www.myntra.com/jeggings/3pin/3pin-girls-pink-solid-cotton-treggings/16573510/buy</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>GLENMARGON OVERSEAS</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>404</t>
-        </is>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Thu, Oct 02</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>200</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t xml:space="preserve">No seller or delivery data and no explicit redirect/error; Pincode input not found or not interactable; No size clicked (may be single size, all sizes unavailable, or selectors need tuning); Seller not found; Delivery info not found; </t>
+          <t xml:space="preserve">No size clicked (may be single size, all sizes unavailable, or selectors need tuning); </t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>https://myntra.com/31520699</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>GLENMARGON OVERSEAS</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>404</t>
-        </is>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Thu, Oct 02</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>200</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t xml:space="preserve">No seller or delivery data and no explicit redirect/error; Pincode input not found or not interactable; No size clicked (may be single size, all sizes unavailable, or selectors need tuning); Seller not found; Delivery info not found; </t>
+          <t xml:space="preserve">No size clicked (may be single size, all sizes unavailable, or selectors need tuning); </t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/shorts/3pin/3pin-men-navy-blue-solid-regular-fit-regular-shorts/14254252/buy</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
+          <t>https://www.myntra.com/tshirts/3pin/3pin-boys-colourblocked-round-neck-long-sleeve-cotton-regular-t-shirt/25260374/buy</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>GLENMARGON OVERSEAS</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>404</t>
-        </is>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Thu, Oct 02</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>200</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t xml:space="preserve">No seller or delivery data and no explicit redirect/error; Pincode input not found or not interactable; No size clicked (may be single size, all sizes unavailable, or selectors need tuning); Seller not found; Delivery info not found; </t>
+          <t xml:space="preserve">No size clicked (may be single size, all sizes unavailable, or selectors need tuning); </t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>https://www.myntra.com/dresses/3pin/3pin-girls-typography-printed-t-shirt-dress/24708206/buy</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>GLENMARGON OVERSEAS</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>404</t>
-        </is>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Thu, Oct 02</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>200</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t xml:space="preserve">No seller or delivery data and no explicit redirect/error; Pincode input not found or not interactable; No size clicked (may be single size, all sizes unavailable, or selectors need tuning); Seller not found; Delivery info not found; </t>
+          <t xml:space="preserve">No size clicked (may be single size, all sizes unavailable, or selectors need tuning); </t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>https://www.myntra.com/shorts/3pin/3pin-men-green-solid-regular-fit-regular-shorts/14254238/buy</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>GLENMARGON OVERSEAS</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>404</t>
-        </is>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Thu, Oct 02</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>200</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t xml:space="preserve">No seller or delivery data and no explicit redirect/error; Pincode input not found or not interactable; No size clicked (may be single size, all sizes unavailable, or selectors need tuning); Seller not found; Delivery info not found; </t>
+          <t xml:space="preserve">No size clicked (may be single size, all sizes unavailable, or selectors need tuning); </t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/jeggings/3pin/3pin-girls-pink-solid-cotton-treggings/16573510/buy</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
+          <t>https://www.myntra.com/shorts/3pin/3pin-men-navy-blue-solid-regular-fit-regular-shorts/14254252/buy</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>GLENMARGON OVERSEAS</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>404</t>
-        </is>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Thu, Oct 02</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>200</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t xml:space="preserve">No seller or delivery data and no explicit redirect/error; Pincode input not found or not interactable; No size clicked (may be single size, all sizes unavailable, or selectors need tuning); Seller not found; Delivery info not found; </t>
+          <t xml:space="preserve">No size clicked (may be single size, all sizes unavailable, or selectors need tuning); </t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/tshirts/3pin/3pin-boys-polo-collar-cotton-t-shirt/22638636/buy</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
+          <t>https://www.myntra.com/tshirts/3pin/3pin-boys-conversational-printed-polo-collar-cotton-t-shirt/29037990/buy</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>GLENMARGON OVERSEAS</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>404</t>
-        </is>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Thu, Oct 02</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>200</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t xml:space="preserve">No seller or delivery data and no explicit redirect/error; Pincode input not found or not interactable; No size clicked (may be single size, all sizes unavailable, or selectors need tuning); Seller not found; Delivery info not found; </t>
+          <t xml:space="preserve">No size clicked (may be single size, all sizes unavailable, or selectors need tuning); </t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/tshirts/3pin/3pin-boys-navy-blue-typography-printed-round-neck-cotton-pure-cotton-t-shirt/14717464/buy</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr"/>
+          <t>https://www.myntra.com/tshirts/3pin/3pin-boys-polo-collar-cotton-t-shirt/22638636/buy</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>GLENMARGON OVERSEAS</t>
+        </is>
+      </c>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>404</t>
-        </is>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Thu, Oct 02</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>200</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t xml:space="preserve">No seller or delivery data and no explicit redirect/error; Pincode input not found or not interactable; No size clicked (may be single size, all sizes unavailable, or selectors need tuning); Seller not found; Delivery info not found; </t>
+          <t xml:space="preserve">No size clicked (may be single size, all sizes unavailable, or selectors need tuning); </t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/tshirts/3pin/3pin-boys-t-shirt/31299133/buy</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
+          <t>https://www.myntra.com/tshirts/3pin/3pin-boys-navy-blue-typography-printed-round-neck-cotton-pure-cotton-t-shirt/14717464/buy</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>GLENMARGON OVERSEAS</t>
+        </is>
+      </c>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>404</t>
-        </is>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Thu, Oct 02</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>200</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t xml:space="preserve">No seller or delivery data and no explicit redirect/error; Pincode input not found or not interactable; No size clicked (may be single size, all sizes unavailable, or selectors need tuning); Seller not found; Delivery info not found; </t>
+          <t xml:space="preserve">No size clicked (may be single size, all sizes unavailable, or selectors need tuning); </t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/tshirts/3pin/3pin-boys-conversational-printed-polo-collar-cotton-t-shirt/29037990/buy</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
+          <t>https://www.myntra.com/tshirts/3pin/3pin-boys-t-shirt/31299133/buy</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>GLENMARGON OVERSEAS</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>404</t>
-        </is>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Thu, Oct 02</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>200</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t xml:space="preserve">No seller or delivery data and no explicit redirect/error; Pincode input not found or not interactable; No size clicked (may be single size, all sizes unavailable, or selectors need tuning); Seller not found; Delivery info not found; </t>
+          <t xml:space="preserve">No size clicked (may be single size, all sizes unavailable, or selectors need tuning); </t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/dresses/3pin/3pin-girls-fit--flare-cotton-dress/24708190/buy</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
+          <t>https://www.myntra.com/tshirts/3pin/3pin-boys-printed-oversized-round-neck-cotton-t-shirt/28991006/buy</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>GLENMARGON OVERSEAS</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>404</t>
-        </is>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Thu, Oct 02</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>200</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t xml:space="preserve">No seller or delivery data and no explicit redirect/error; Pincode input not found or not interactable; No size clicked (may be single size, all sizes unavailable, or selectors need tuning); Seller not found; Delivery info not found; </t>
+          <t xml:space="preserve">No size clicked (may be single size, all sizes unavailable, or selectors need tuning); </t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/tshirts/3pin/3pin-boys-printed-oversized-round-neck-cotton-t-shirt/28991006/buy</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
+          <t>https://www.myntra.com/sweatshirts/3pin/3pin-girls-cotton-printed-sweatshirt/21304634/buy</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>GLENMARGON OVERSEAS</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>404</t>
-        </is>
+      <c r="F42" t="n">
+        <v>200</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t xml:space="preserve">No seller or delivery data and no explicit redirect/error; Pincode input not found or not interactable; No size clicked (may be single size, all sizes unavailable, or selectors need tuning); Seller not found; Delivery info not found; </t>
+          <t xml:space="preserve">Pincode input not found or not interactable; No size clicked (may be single size, all sizes unavailable, or selectors need tuning); Delivery info not found; </t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/sweatshirts/3pin/3pin-girls-cotton-printed-sweatshirt/21304634/buy</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
+          <t>https://www.myntra.com/dresses/3pin/3pin-girls-fit--flare-cotton-dress/24708190/buy</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>GLENMARGON OVERSEAS</t>
+        </is>
+      </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>404</t>
-        </is>
+      <c r="F43" t="n">
+        <v>200</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t xml:space="preserve">No seller or delivery data and no explicit redirect/error; Pincode input not found or not interactable; No size clicked (may be single size, all sizes unavailable, or selectors need tuning); Seller not found; Delivery info not found; </t>
+          <t xml:space="preserve">Pincode input not found or not interactable; No size clicked (may be single size, all sizes unavailable, or selectors need tuning); Delivery info not found; </t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1490,10 +1664,8 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>404</t>
-        </is>
+      <c r="F44" t="n">
+        <v>404</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1503,162 +1675,176 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/tshirts/3pin/3pin-women-black-printed-round-neck-t-shirt/14260636/buy</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
+          <t>https://www.myntra.com/trunk/3pin/3pin-boys-pack-of-3-assorted-trunks/30026121/buy</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>GLENMARGON OVERSEAS</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>404</t>
-        </is>
+      <c r="F45" t="n">
+        <v>200</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t xml:space="preserve">No seller or delivery data and no explicit redirect/error; Pincode input not found or not interactable; No size clicked (may be single size, all sizes unavailable, or selectors need tuning); Seller not found; Delivery info not found; </t>
+          <t xml:space="preserve">Pincode input not found or not interactable; No size clicked (may be single size, all sizes unavailable, or selectors need tuning); Delivery info not found; </t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/tshirts/3pin/3pin-boys-olive-green--white-printed-cotton-t-shirt/16367252/buy</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
+          <t>https://www.myntra.com/tshirts/3pin/3pin-women-black-printed-round-neck-t-shirt/14260636/buy</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>GLENMARGON OVERSEAS</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>404</t>
-        </is>
+      <c r="F46" t="n">
+        <v>200</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t xml:space="preserve">No seller or delivery data and no explicit redirect/error; Pincode input not found or not interactable; No size clicked (may be single size, all sizes unavailable, or selectors need tuning); Seller not found; Delivery info not found; </t>
+          <t xml:space="preserve">Pincode input not found or not interactable; Delivery info not found; </t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/tshirts/3pin/3pin-boys-geometric-printed-round-neck-pure-cotton-t-shirt/30826461/buy</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
+          <t>https://www.myntra.com/tshirts/3pin/3pin-boys-olive-green--white-printed-cotton-t-shirt/16367252/buy</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>GLENMARGON OVERSEAS</t>
+        </is>
+      </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>404</t>
-        </is>
+      <c r="F47" t="n">
+        <v>200</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t xml:space="preserve">No seller or delivery data and no explicit redirect/error; Pincode input not found or not interactable; No size clicked (may be single size, all sizes unavailable, or selectors need tuning); Seller not found; Delivery info not found; </t>
+          <t xml:space="preserve">Pincode input not found or not interactable; No size clicked (may be single size, all sizes unavailable, or selectors need tuning); Delivery info not found; </t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/trunk/3pin/3pin-boys-pack-of-3-assorted-trunks/30026121/buy</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
+          <t>https://www.myntra.com/tshirts/3pin/3pin-boys-geometric-printed-round-neck-pure-cotton-t-shirt/30826461/buy</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>GLENMARGON OVERSEAS</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>404</t>
-        </is>
+      <c r="F48" t="n">
+        <v>200</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t xml:space="preserve">No seller or delivery data and no explicit redirect/error; Pincode input not found or not interactable; No size clicked (may be single size, all sizes unavailable, or selectors need tuning); Seller not found; Delivery info not found; </t>
+          <t xml:space="preserve">Pincode input not found or not interactable; No size clicked (may be single size, all sizes unavailable, or selectors need tuning); Delivery info not found; </t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/tshirts/3pin/3pin-boys-colourblocked-cotton-t-shirt/23638772/buy</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
+          <t>https://www.myntra.com/tshirts/3pin/3pin-women-white--black-colourblocked-round-neck-t-shirt/14260624/buy</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>GLENMARGON OVERSEAS</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>404</t>
-        </is>
+      <c r="F49" t="n">
+        <v>200</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t xml:space="preserve">No seller or delivery data and no explicit redirect/error; Pincode input not found or not interactable; No size clicked (may be single size, all sizes unavailable, or selectors need tuning); Seller not found; Delivery info not found; </t>
+          <t xml:space="preserve">Pincode input not found or not interactable; Delivery info not found; </t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/tshirts/3pin/3pin-boys-graphic-printed-round-neck-pure-cotton-t-shirt/30826439/buy</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
+          <t>https://www.myntra.com/tshirts/3pin/3pin-boys-colourblocked-cotton-t-shirt/23638772/buy</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>GLENMARGON OVERSEAS</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>404</t>
-        </is>
+      <c r="F50" t="n">
+        <v>200</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t xml:space="preserve">No seller or delivery data and no explicit redirect/error; Pincode input not found or not interactable; No size clicked (may be single size, all sizes unavailable, or selectors need tuning); Seller not found; Delivery info not found; </t>
+          <t xml:space="preserve">Pincode input not found or not interactable; No size clicked (may be single size, all sizes unavailable, or selectors need tuning); Delivery info not found; </t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/tshirts/3pin/3pin-women-white--black-colourblocked-round-neck-t-shirt/14260624/buy</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
+          <t>https://www.myntra.com/tshirts/3pin/3pin-boys-graphic-printed-round-neck-pure-cotton-t-shirt/30826439/buy</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>GLENMARGON OVERSEAS</t>
+        </is>
+      </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>404</t>
-        </is>
+      <c r="F51" t="n">
+        <v>200</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t xml:space="preserve">No seller or delivery data and no explicit redirect/error; Pincode input not found or not interactable; No size clicked (may be single size, all sizes unavailable, or selectors need tuning); Seller not found; Delivery info not found; </t>
+          <t xml:space="preserve">Pincode input not found or not interactable; No size clicked (may be single size, all sizes unavailable, or selectors need tuning); Delivery info not found; </t>
         </is>
       </c>
     </row>
